--- a/IIIT-NR Batch.xlsx
+++ b/IIIT-NR Batch.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUSHAR\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUSHAR\Downloads\neon-space (3)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED747E9-0720-49A9-A783-59F501C55F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5932925D-45FA-4A91-A712-6118E41386B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="1" r:id="rId1"/>
@@ -1975,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2221,243 +2221,211 @@
       <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C40" s="8"/>
     </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
-        <v>38</v>
+      <c r="A43" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C43" s="8"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1" t="s">
-        <v>39</v>
+      <c r="A44" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C44" s="8"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1" t="s">
-        <v>40</v>
+      <c r="A45" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1" t="s">
-        <v>41</v>
+      <c r="A46" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C46" s="8"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1" t="s">
-        <v>42</v>
+      <c r="A47" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C47" s="8"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1" t="s">
-        <v>43</v>
+      <c r="A48" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
-        <v>44</v>
+      <c r="A49" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1" t="s">
-        <v>45</v>
+      <c r="A50" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C50" s="8"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1" t="s">
-        <v>46</v>
+      <c r="A51" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C51" s="8"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
-        <v>47</v>
+      <c r="A52" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1" t="s">
-        <v>48</v>
+      <c r="A53" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1" t="s">
-        <v>49</v>
+      <c r="A54" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C54" s="8"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
-        <v>50</v>
+      <c r="A55" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1" t="s">
-        <v>51</v>
+      <c r="A56" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1" t="s">
-        <v>52</v>
+      <c r="A57" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1" t="s">
-        <v>53</v>
+      <c r="A58" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C58" s="8"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
-        <v>54</v>
+      <c r="A59" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
-        <v>55</v>
+      <c r="A60" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1" t="s">
-        <v>56</v>
+      <c r="A61" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1" t="s">
-        <v>57</v>
+      <c r="A62" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
-        <v>58</v>
+      <c r="A63" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1" t="s">
-        <v>59</v>
+      <c r="A64" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1" t="s">
-        <v>60</v>
+      <c r="A65" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C65" s="8"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1" t="s">
-        <v>61</v>
+      <c r="A66" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C66" s="8"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1" t="s">
-        <v>62</v>
+      <c r="A67" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C67" s="8"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1" t="s">
-        <v>63</v>
+      <c r="A68" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C68" s="8"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1" t="s">
-        <v>64</v>
+      <c r="A69" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C69" s="8"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1" t="s">
-        <v>65</v>
+      <c r="A70" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C70" s="8"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1" t="s">
-        <v>66</v>
+      <c r="A71" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1" t="s">
-        <v>67</v>
+      <c r="A72" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1" t="s">
-        <v>68</v>
+      <c r="A73" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1" t="s">
-        <v>69</v>
+      <c r="A74" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1" t="s">
-        <v>70</v>
+      <c r="A75" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="1" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="C77" s="8"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="1" t="s">
-        <v>73</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3825,7 +3793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
